--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>string</t>
   </si>
@@ -45,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>类型</t>
     </r>
     <r>
@@ -78,13 +85,40 @@
     <t>攻击次数加成</t>
   </si>
   <si>
-    <t>Debuff/Buff效果加成</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Buff效果加成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性结晶专属。属性结晶获得和每次升级时，都会为自机增加一层对应Buff，其数值加成在这里记录。</t>
+    </r>
   </si>
   <si>
     <t>冷却缩减</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">特殊
 </t>
     </r>
@@ -96,8 +130,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>none：无；
-disposable_buff：这种记忆结晶对应即时Buff，升级时会再次触发一次对应即时Buff。</t>
+      <t>none：无；</t>
     </r>
   </si>
   <si>
@@ -128,7 +161,7 @@
     <t>times_addition</t>
   </si>
   <si>
-    <t>debuff_addition</t>
+    <t>buff_addition</t>
   </si>
   <si>
     <t>cd_reduction</t>
@@ -149,9 +182,6 @@
     <t>0.25|0.25|0.25|0.25|0.5|0.5</t>
   </si>
   <si>
-    <t>0|0|0|0|0|0</t>
-  </si>
-  <si>
     <t>0|1|1|2|2|3</t>
   </si>
   <si>
@@ -215,9 +245,6 @@
     <t>0|0.25|0.5</t>
   </si>
   <si>
-    <t>0|0|0</t>
-  </si>
-  <si>
     <t>upg_youmu</t>
   </si>
   <si>
@@ -233,7 +260,7 @@
     <t>passive</t>
   </si>
   <si>
-    <t>0|0.5|1|1.5</t>
+    <t>1|0.5|0.5|0.5</t>
   </si>
   <si>
     <t>upg_saki</t>
@@ -248,10 +275,7 @@
     <t>矢田寺成美</t>
   </si>
   <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>disposable_buff</t>
+    <t>1|1</t>
   </si>
   <si>
     <t>upg_junko</t>
@@ -1222,11 +1246,11 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1278,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="52" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1306,7 +1330,7 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1370,34 +1394,26 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1408,34 +1424,26 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1446,34 +1454,26 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6"/>
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1484,34 +1484,26 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1522,34 +1514,26 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8"/>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1560,34 +1544,26 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9"/>
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1598,34 +1574,26 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10"/>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1636,149 +1604,121 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11"/>
+      <c r="K11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1789,71 +1729,71 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B566E2-8346-49FB-9FFE-8EFB4E26009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="36075" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
@@ -179,9 +185,6 @@
     <t>skill</t>
   </si>
   <si>
-    <t>0.25|0.25|0.25|0.25|0.5|0.5</t>
-  </si>
-  <si>
     <t>0|1|1|2|2|3</t>
   </si>
   <si>
@@ -294,168 +297,22 @@
   </si>
   <si>
     <t>姬虫百百世</t>
+  </si>
+  <si>
+    <t>0|0.25|0.25|0.25|0.5|0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,202 +322,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -668,255 +353,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,62 +375,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1237,34 +639,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="11" width="30.9090909090909" customWidth="1"/>
-    <col min="12" max="12" width="21.4545454545455" customWidth="1"/>
-    <col min="13" max="13" width="7.90909090909091" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="11" width="30.875" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="52" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="55.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1391,29 +792,25 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1421,29 +818,25 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1451,29 +844,25 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1481,29 +870,25 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1511,29 +896,25 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1541,29 +922,25 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
       <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1571,29 +948,25 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
       <c r="L10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1601,204 +974,182 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="J11"/>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
       <c r="L11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
+        <v>50</v>
+      </c>
       <c r="L13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
       <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B566E2-8346-49FB-9FFE-8EFB4E26009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C8395-7EAF-401F-B138-DFAB3847E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="36075" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>string</t>
   </si>
@@ -55,6 +53,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,6 +64,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,6 +96,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +108,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,6 +124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -133,6 +136,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -188,119 +192,202 @@
     <t>0|1|1|2|2|3</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>upg_sanae</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+  </si>
+  <si>
+    <t>upg_rumia</t>
+  </si>
+  <si>
+    <t>露米娅</t>
+  </si>
+  <si>
+    <t>upg_wriggle</t>
+  </si>
+  <si>
+    <t>莉格露</t>
+  </si>
+  <si>
+    <t>upg_alice</t>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>upg_sekibanki</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>upg_misumaru</t>
+  </si>
+  <si>
+    <t>玉造魅须丸</t>
+  </si>
+  <si>
+    <t>upg_sakuya</t>
+  </si>
+  <si>
+    <t>十六夜咲夜</t>
+  </si>
+  <si>
+    <t>upg_marisa</t>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+  </si>
+  <si>
+    <t>spellcard</t>
+  </si>
+  <si>
+    <t>0|0.25|0.5</t>
+  </si>
+  <si>
+    <t>upg_youmu</t>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+  </si>
+  <si>
+    <t>upg_patchouli</t>
+  </si>
+  <si>
+    <t>帕秋莉</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>1|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>upg_saki</t>
+  </si>
+  <si>
+    <t>骊驹早鬼</t>
+  </si>
+  <si>
+    <t>upg_narumi</t>
+  </si>
+  <si>
+    <t>矢田寺成美</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>upg_junko</t>
+  </si>
+  <si>
+    <t>纯狐</t>
+  </si>
+  <si>
+    <t>upg_kisumi</t>
+  </si>
+  <si>
+    <t>琪斯美</t>
+  </si>
+  <si>
+    <t>upg_momoyo</t>
+  </si>
+  <si>
+    <t>姬虫百百世</t>
+  </si>
+  <si>
+    <t>0|0|0|0.2|0.2|0.2</t>
+  </si>
+  <si>
+    <t>0|0|0|0.2|0.2|0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.25|0.25|0.25|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0.25|0.25|0.25|0.5|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|1|1|2|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.2|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0|0|0|0.5|0.5|0.5</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>upg_sanae</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>upg_rumia</t>
-  </si>
-  <si>
-    <t>露米娅</t>
-  </si>
-  <si>
-    <t>upg_wriggle</t>
-  </si>
-  <si>
-    <t>莉格露</t>
-  </si>
-  <si>
-    <t>upg_alice</t>
-  </si>
-  <si>
-    <t>爱丽丝</t>
-  </si>
-  <si>
-    <t>upg_sekibanki</t>
-  </si>
-  <si>
-    <t>赤蛮奇</t>
-  </si>
-  <si>
-    <t>upg_misumaru</t>
-  </si>
-  <si>
-    <t>玉造魅须丸</t>
-  </si>
-  <si>
-    <t>upg_sakuya</t>
-  </si>
-  <si>
-    <t>十六夜咲夜</t>
-  </si>
-  <si>
-    <t>upg_marisa</t>
-  </si>
-  <si>
-    <t>雾雨魔理沙</t>
-  </si>
-  <si>
-    <t>spellcard</t>
-  </si>
-  <si>
-    <t>0|0.25|0.5</t>
-  </si>
-  <si>
-    <t>upg_youmu</t>
-  </si>
-  <si>
-    <t>魂魄妖梦</t>
-  </si>
-  <si>
-    <t>upg_patchouli</t>
-  </si>
-  <si>
-    <t>帕秋莉</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>1|0.5|0.5|0.5</t>
-  </si>
-  <si>
-    <t>upg_saki</t>
-  </si>
-  <si>
-    <t>骊驹早鬼</t>
-  </si>
-  <si>
-    <t>upg_narumi</t>
-  </si>
-  <si>
-    <t>矢田寺成美</t>
-  </si>
-  <si>
-    <t>1|1</t>
-  </si>
-  <si>
-    <t>upg_junko</t>
-  </si>
-  <si>
-    <t>纯狐</t>
-  </si>
-  <si>
-    <t>upg_kisumi</t>
-  </si>
-  <si>
-    <t>琪斯美</t>
-  </si>
-  <si>
-    <t>upg_momoyo</t>
-  </si>
-  <si>
-    <t>姬虫百百世</t>
-  </si>
-  <si>
-    <t>0|0.25|0.25|0.25|0.5|0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|0|0|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.2|0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.5|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|1|1|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.1|0.2|0.3|0.4|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.3|0.3|0.3|0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2|3|4|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.4|0.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.25|0.5|0.5|0.5|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|1|2|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|1|1|3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.1|0.1|0.2|0.3|0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.2|0.3|0.4|0.4|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.1|0.1|0.2|0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|2|2|3|4|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -316,21 +403,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -359,24 +448,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,69 +734,69 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="11" width="30.875" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="11" width="30.90625" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="55.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -731,17 +817,17 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -779,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -792,25 +878,28 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -818,25 +907,31 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -844,25 +939,31 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -870,25 +971,31 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -896,25 +1003,28 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -922,25 +1032,31 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
       <c r="L9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -948,25 +1064,25 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>68</v>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>31</v>
+      <c r="K10" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -974,181 +1090,187 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
       <c r="L11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C8395-7EAF-401F-B138-DFAB3847E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>string</t>
   </si>
@@ -53,7 +49,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,7 +59,6 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,7 +90,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +101,6 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +116,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +127,6 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -189,54 +179,117 @@
     <t>skill</t>
   </si>
   <si>
+    <t>0|0.25|0.5|0.5|0.5|1</t>
+  </si>
+  <si>
+    <t>0|0.1|0.2|0.3|0.4|0.5</t>
+  </si>
+  <si>
+    <t>0|1|2|3|4|5</t>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.4|0.4</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>upg_sanae</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+  </si>
+  <si>
+    <t>0|0.25|0.25|0.25|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0.1|0.1|0.2|0.3|0.3</t>
+  </si>
+  <si>
+    <t>0|0|0|1|1|3</t>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.2|0.2</t>
+  </si>
+  <si>
+    <t>upg_rumia</t>
+  </si>
+  <si>
+    <t>露米娅</t>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.2|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0</t>
+  </si>
+  <si>
+    <t>0|0|1|1|2|2</t>
+  </si>
+  <si>
+    <t>0|0|0|0.2|0.2|0.2</t>
+  </si>
+  <si>
+    <t>upg_wriggle</t>
+  </si>
+  <si>
+    <t>莉格露</t>
+  </si>
+  <si>
+    <t>0|0|0|1|2|2</t>
+  </si>
+  <si>
+    <t>0|0.2|0.3|0.4|0.4|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0.1|0.1|0.2|0.2</t>
+  </si>
+  <si>
+    <t>0|2|2|3|4|5</t>
+  </si>
+  <si>
+    <t>upg_alice</t>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0|1|1|2</t>
+  </si>
+  <si>
+    <t>upg_sekibanki</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>upg_misumaru</t>
+  </si>
+  <si>
+    <t>玉造魅须丸</t>
+  </si>
+  <si>
+    <t>0|0|0.25|0.25|0.5|0.5</t>
+  </si>
+  <si>
     <t>0|1|1|2|2|3</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>upg_sanae</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>upg_rumia</t>
-  </si>
-  <si>
-    <t>露米娅</t>
-  </si>
-  <si>
-    <t>upg_wriggle</t>
-  </si>
-  <si>
-    <t>莉格露</t>
-  </si>
-  <si>
-    <t>upg_alice</t>
-  </si>
-  <si>
-    <t>爱丽丝</t>
-  </si>
-  <si>
-    <t>upg_sekibanki</t>
-  </si>
-  <si>
-    <t>赤蛮奇</t>
-  </si>
-  <si>
-    <t>upg_misumaru</t>
-  </si>
-  <si>
-    <t>玉造魅须丸</t>
-  </si>
-  <si>
     <t>upg_sakuya</t>
   </si>
   <si>
     <t>十六夜咲夜</t>
   </si>
   <si>
+    <t>0|0|0.3|0.3|0.3|0.3</t>
+  </si>
+  <si>
     <t>upg_marisa</t>
   </si>
   <si>
@@ -298,103 +351,19 @@
   </si>
   <si>
     <t>姬虫百百世</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0.2|0.2</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0.2|0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0.25|0.25|0.25|0.5|0.5</t>
-  </si>
-  <si>
-    <t>0|0.25|0.25|0.25|0.5|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|1|1|2|2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0.2|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|0.5|0.5|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|0|0|1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0.2|0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0.5|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|1|1|2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0.1|0.2|0.3|0.4|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.3|0.3|0.3|0.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1|2|3|4|5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0.4|0.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0.25|0.5|0.5|0.5|1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|1|2|2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|0|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0|1|1|3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0.1|0.1|0.2|0.3|0.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0.2|0.3|0.4|0.4|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0.1|0.1|0.2|0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|2|2|3|4|5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,35 +375,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -442,9 +732,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -461,21 +993,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,33 +1304,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="11" width="30.90625" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" customWidth="1"/>
-    <col min="13" max="13" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="11" width="30.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="21.4545454545455" customWidth="1"/>
+    <col min="13" max="13" width="7.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="52" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -827,7 +1407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -865,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -879,27 +1459,27 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -908,30 +1488,30 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -940,30 +1520,30 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -972,30 +1552,30 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1004,27 +1584,27 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1033,30 +1613,30 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1065,24 +1645,24 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1091,187 +1671,187 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>string</t>
   </si>
@@ -257,6 +257,9 @@
     <t>爱丽丝</t>
   </si>
   <si>
+    <t>0|0.25|0.25|0.5|0.5|0.75</t>
+  </si>
+  <si>
     <t>0|0|0.2|0.2|0.5|0.5</t>
   </si>
   <si>
@@ -288,6 +291,12 @@
   </si>
   <si>
     <t>0|0|0.3|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>0|0|0|2|2|2</t>
+  </si>
+  <si>
+    <t>0|0|0|0.2|0.2|0.4</t>
   </si>
   <si>
     <t>upg_marisa</t>
@@ -363,14 +372,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,133 +852,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,13 +992,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,11 +1315,11 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1584,16 +1586,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -1601,10 +1603,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1633,10 +1635,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1645,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>47</v>
@@ -1659,10 +1661,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1677,13 +1679,13 @@
         <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>34</v>
@@ -1691,19 +1693,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -1711,19 +1713,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
@@ -1731,19 +1733,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
@@ -1751,19 +1753,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
         <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -1771,19 +1773,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -1791,19 +1793,19 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
@@ -1811,19 +1813,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -1831,19 +1833,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>

--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D689DB9-1244-4D2F-9587-B7A6F4C9105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A9793-D9CA-493E-AA61-70429BEA9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>string</t>
   </si>
@@ -195,9 +195,6 @@
     <t>0|1|2|3|4|5</t>
   </si>
   <si>
-    <t>0|0|0.2|0.2|0.4|0.4</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -282,12 +279,6 @@
     <t>十六夜咲夜</t>
   </si>
   <si>
-    <t>0|0|0|2|2|2</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0.2|0.4</t>
-  </si>
-  <si>
     <t>upg_marisa</t>
   </si>
   <si>
@@ -351,10 +342,6 @@
     <t>姬虫百百世</t>
   </si>
   <si>
-    <t>0|0.5|1|1|1|1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0.5|0.5|0.5|1|1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -375,15 +362,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|0.25|0.25|0.5|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0|0.3|0.3|0.5|0.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0|2|4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.25|0.25|0.5|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|1|1|1|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.5|1|1|1.5|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.4|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.2|0.3|0.4|0.4|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|0.2|0.2|0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0.5|0.5|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0.5|0.5|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.5|0.5|1.5|1.5|2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +753,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -879,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -887,19 +906,19 @@
       <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
+      <c r="K4" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -908,30 +927,30 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -940,30 +959,30 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -972,26 +991,26 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1000,27 +1019,27 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1029,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1040,19 +1059,19 @@
       <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
+      <c r="K9" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1061,24 +1080,24 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1086,187 +1105,187 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
+      <c r="E11" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="J17" t="s">
-        <v>72</v>
+      <c r="J17" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>72</v>
+      <c r="J18" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>72</v>
+      <c r="J19" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/Upgrade.xlsx
+++ b/settings/data/Upgrade.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A9793-D9CA-493E-AA61-70429BEA9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE51CA-8759-44EC-9564-1484A550331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Upgrade!$B$1:$B$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>string</t>
   </si>
@@ -189,9 +192,6 @@
     <t>skill</t>
   </si>
   <si>
-    <t>0|0.1|0.2|0.3|0.4|0.5</t>
-  </si>
-  <si>
     <t>0|1|2|3|4|5</t>
   </si>
   <si>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0.25|0.5|0.5|1|1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0|0.3|0.3|0.5|0.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -386,10 +382,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0.2|0.3|0.4|0.4|0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0|0|0.2|0.2|0.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -402,7 +394,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0.5|0.5|1.5|1.5|2</t>
+    <t>0|0.5|0.5|1.5|2|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.2|0.2|0.5|0.5|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.5|0.5|1|1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0.2|0.2|0.2|0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.1|0.2|0.2|0.5|0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|2|2|4|4|5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -750,13 +762,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11:K11"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -898,27 +911,27 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -927,30 +940,30 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -959,30 +972,30 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -991,26 +1004,26 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1019,27 +1032,27 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1048,30 +1061,30 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1080,24 +1093,24 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1106,189 +1119,200 @@
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="L12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="L13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="*"/>
+        <filter val="博丽灵梦"/>
+        <filter val="赤蛮奇"/>
+        <filter val="玉造魅须丸"/>
+        <filter val="中文名"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
